--- a/biology/Médecine/1143_en_santé_et_médecine/1143_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1143_en_santé_et_médecine/1143_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1143_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1143_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1143 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1143_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1143_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première mention de l'hôpital de Strasbourg, dans une charte de l'évêque Burchard qui date sa fondation de 1119 ; il sera transféré hors les murs en 1316, détruit en 1393 et rebâti en 1398 sur les lieux qu'occupe aujourd'hui le Nouvel Hôpital civil[1].
-Cunégonde, abbesse de Saint-Trophime d'Eschau, en Alsace, fonde un hôpital « près de la route romaine (juxta stratam romanam), pour y recevoir les pauvres et les passants[2] ».
-Fondation à Montpellier par Guilhem VI, seigneur du lieu, « de la léproserie Saint-Lazare, aussi appelée Castelnau », établissement qui, vers 1153, « passe[ra] sous la double autorité du seigneur de la ville et de l’évêché de Maguelone[3] ».
-Fondation à Molfetta nel Passato, dans les Pouilles en Italie du Sud, d'un hôpital placé sous l'invocation de saint Philippe et saint Jacques[4].
-Vers 1143 : « lorsque l'abbesse de Saint-Trophime fonde son hôpital à Eschau, en Alsace, on présume que cesse d'exister l'hospice ou hôpital pour jeunes filles, veuves nécessiteuses et handicapées » que la fondatrice de l'abbaye d'Erstein, Ermengarde de Tours, impératrice d'Occident, avait fait établir à Krafft au milieu du IXe siècle[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première mention de l'hôpital de Strasbourg, dans une charte de l'évêque Burchard qui date sa fondation de 1119 ; il sera transféré hors les murs en 1316, détruit en 1393 et rebâti en 1398 sur les lieux qu'occupe aujourd'hui le Nouvel Hôpital civil.
+Cunégonde, abbesse de Saint-Trophime d'Eschau, en Alsace, fonde un hôpital « près de la route romaine (juxta stratam romanam), pour y recevoir les pauvres et les passants ».
+Fondation à Montpellier par Guilhem VI, seigneur du lieu, « de la léproserie Saint-Lazare, aussi appelée Castelnau », établissement qui, vers 1153, « passe[ra] sous la double autorité du seigneur de la ville et de l’évêché de Maguelone ».
+Fondation à Molfetta nel Passato, dans les Pouilles en Italie du Sud, d'un hôpital placé sous l'invocation de saint Philippe et saint Jacques.
+Vers 1143 : « lorsque l'abbesse de Saint-Trophime fonde son hôpital à Eschau, en Alsace, on présume que cesse d'exister l'hospice ou hôpital pour jeunes filles, veuves nécessiteuses et handicapées » que la fondatrice de l'abbaye d'Erstein, Ermengarde de Tours, impératrice d'Occident, avait fait établir à Krafft au milieu du IXe siècle.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1143_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1143_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Guillaume, médecin à Auxerre, en Bourgogne[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Guillaume, médecin à Auxerre, en Bourgogne.
 Vers 1143 :
-Fl. Jean Borgaux, « médecin de Dijon, en Bourgogne, cité dans une charte de Godefroy, évêque de Langres[6] ».
-Fl. Mathieu, médecin à Vézelay, en Bourgogne[7].
+Fl. Jean Borgaux, « médecin de Dijon, en Bourgogne, cité dans une charte de Godefroy, évêque de Langres ».
+Fl. Mathieu, médecin à Vézelay, en Bourgogne.
 </t>
         </is>
       </c>
